--- a/division_task.xlsx
+++ b/division_task.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lee nauht\Desktop\AirBnB Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zalo Received Files\Capstone-AirBnB\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC649A3C-5A9B-4FE2-A546-8AA6FF3A12B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,24 +19,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -247,27 +235,12 @@
     <t>Admin Template</t>
   </si>
   <si>
-    <t>20/02</t>
-  </si>
-  <si>
     <t>Dev1</t>
   </si>
   <si>
-    <t>Giao diện admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xác thực tài khoản </t>
-  </si>
-  <si>
     <t>Quản lý người dùng</t>
   </si>
   <si>
-    <t>Quản lý phim</t>
-  </si>
-  <si>
-    <t>Tạo lịch chiếu phim</t>
-  </si>
-  <si>
     <t>Thuận</t>
   </si>
   <si>
@@ -314,15 +287,33 @@
   </si>
   <si>
     <t>ChatBox</t>
+  </si>
+  <si>
+    <t>Quản lý vị trí</t>
+  </si>
+  <si>
+    <t>Quản lý phòng</t>
+  </si>
+  <si>
+    <t>Quản lý đặt phòng</t>
+  </si>
+  <si>
+    <t>Thành</t>
+  </si>
+  <si>
+    <t>Xử lý đăng xuất</t>
+  </si>
+  <si>
+    <t>Giao diện xử lý auth</t>
+  </si>
+  <si>
+    <t>Quản lý thông tin người dùng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="dd\-mmm"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -478,7 +469,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -705,7 +696,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7">
+    <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="16"/>
       <tableStyleElement type="headerRow" dxfId="15"/>
       <tableStyleElement type="totalRow" dxfId="14"/>
@@ -714,7 +705,7 @@
       <tableStyleElement type="firstRowStripe" dxfId="11"/>
       <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
-    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10">
+    <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="headerRow" dxfId="9"/>
       <tableStyleElement type="totalRow" dxfId="8"/>
       <tableStyleElement type="firstRowStripe" dxfId="7"/>
@@ -995,18 +986,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24">
@@ -1045,263 +1036,269 @@
       <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="5">
+        <v>45934</v>
+      </c>
+      <c r="C2" s="5">
+        <v>45934</v>
+      </c>
+      <c r="D2" s="6">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="5">
+        <v>45934</v>
+      </c>
+      <c r="G2" s="5">
+        <v>45934</v>
+      </c>
+      <c r="H2" s="6">
+        <v>1</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="6">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="6">
-        <v>1</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="5">
+        <v>45934</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45934</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="5">
+        <v>45934</v>
+      </c>
+      <c r="G3" s="5">
+        <v>45934</v>
+      </c>
+      <c r="H3" s="6">
+        <v>1</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="6">
-        <v>1</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5">
+        <v>45934</v>
+      </c>
+      <c r="C4" s="5">
+        <v>45934</v>
+      </c>
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="5">
+        <v>45934</v>
+      </c>
+      <c r="G4" s="5">
+        <v>45934</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="6">
-        <v>1</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="J4" s="12"/>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="5">
+        <v>45934</v>
+      </c>
+      <c r="C5" s="5">
+        <v>45934</v>
+      </c>
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="5">
+        <v>45934</v>
+      </c>
+      <c r="G5" s="5">
+        <v>45934</v>
+      </c>
+      <c r="H5" s="6">
+        <v>1</v>
+      </c>
+      <c r="I5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" ht="16.899999999999999" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="5">
+        <v>45934</v>
+      </c>
+      <c r="C6" s="5">
+        <v>45934</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="5">
+        <v>45934</v>
+      </c>
+      <c r="G6" s="5">
+        <v>45934</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="6">
-        <v>1</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="13"/>
-    </row>
-    <row r="6" spans="1:10" ht="16.95" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="5">
+        <v>45934</v>
+      </c>
+      <c r="C7" s="5">
+        <v>45934</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="5">
+        <v>45934</v>
+      </c>
+      <c r="G7" s="5">
+        <v>45934</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="5">
+        <v>45934</v>
+      </c>
+      <c r="C8" s="5">
+        <v>45934</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="5">
+        <v>45934</v>
+      </c>
+      <c r="G8" s="5">
+        <v>45934</v>
+      </c>
+      <c r="H8" s="6">
+        <v>1</v>
+      </c>
+      <c r="I8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5" t="s">
+      <c r="J8" s="14"/>
+    </row>
+    <row r="9" spans="1:10" ht="25.5">
+      <c r="A9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="5">
+        <v>45934</v>
+      </c>
+      <c r="C9" s="5">
+        <v>45934</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="5">
+        <v>45934</v>
+      </c>
+      <c r="G9" s="5">
+        <v>45934</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="11" t="s">
         <v>10</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1</v>
-      </c>
-      <c r="I7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J7" s="14"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="14"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>11</v>
       </c>
       <c r="J9" s="14"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1</v>
-      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="6">
-        <v>1</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="11"/>
       <c r="J10" s="14"/>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="4"/>
-      <c r="B11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1</v>
-      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="6">
-        <v>1</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>11</v>
-      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="11"/>
       <c r="J11" s="14"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B12" s="5">
         <v>45934</v>
@@ -1313,7 +1310,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F12" s="5">
         <v>45934</v>
@@ -1325,13 +1322,13 @@
         <v>1</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J12" s="14"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B13" s="5">
         <v>45934</v>
@@ -1343,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F13" s="5">
         <v>45934</v>
@@ -1355,13 +1352,13 @@
         <v>1</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J13" s="14"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B14" s="5">
         <v>45934</v>
@@ -1373,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F14" s="5">
         <v>45934</v>
@@ -1385,13 +1382,13 @@
         <v>1</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J14" s="14"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B15" s="5">
         <v>45934</v>
@@ -1403,7 +1400,7 @@
         <v>1</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F15" s="5">
         <v>45934</v>
@@ -1415,13 +1412,13 @@
         <v>1</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J15" s="14"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B16" s="5">
         <v>45934</v>
@@ -1433,7 +1430,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F16" s="5">
         <v>45934</v>
@@ -1445,13 +1442,13 @@
         <v>1</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J16" s="14"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B17" s="5">
         <v>45934</v>
@@ -1463,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F17" s="5">
         <v>45934</v>
@@ -1475,13 +1472,13 @@
         <v>1</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J17" s="14"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B18" s="5">
         <v>45934</v>
@@ -1493,7 +1490,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F18" s="5">
         <v>45934</v>
@@ -1505,13 +1502,13 @@
         <v>1</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J18" s="14"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B19" s="5">
         <v>45934</v>
@@ -1523,7 +1520,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F19" s="5">
         <v>45934</v>
@@ -1535,13 +1532,13 @@
         <v>1</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J19" s="14"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="4" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B20" s="5">
         <v>45934</v>
@@ -1553,7 +1550,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F20" s="5">
         <v>45934</v>
@@ -1565,13 +1562,13 @@
         <v>1</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J20" s="14"/>
     </row>
-    <row r="21" spans="1:10" ht="15" thickBot="1">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1">
       <c r="A21" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B21" s="5">
         <v>45934</v>
@@ -1583,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F21" s="5">
         <v>45934</v>
@@ -1595,13 +1592,13 @@
         <v>1</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J21" s="14"/>
     </row>
-    <row r="22" spans="1:10" ht="15" thickBot="1">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1">
       <c r="A22" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B22" s="5">
         <v>45934</v>
@@ -1613,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F22" s="5">
         <v>45934</v>
@@ -1625,13 +1622,13 @@
         <v>1</v>
       </c>
       <c r="I22" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J22" s="14"/>
     </row>
-    <row r="23" spans="1:10" ht="15" thickBot="1">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1">
       <c r="A23" s="4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B23" s="5">
         <v>45934</v>
@@ -1643,7 +1640,7 @@
         <v>1</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F23" s="5">
         <v>45934</v>
@@ -1655,13 +1652,13 @@
         <v>1</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J23" s="14"/>
     </row>
-    <row r="24" spans="1:10" ht="15" thickBot="1">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1">
       <c r="A24" s="4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B24" s="5">
         <v>45934</v>
@@ -1673,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F24" s="5">
         <v>45934</v>
@@ -1685,13 +1682,13 @@
         <v>1</v>
       </c>
       <c r="I24" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J24" s="14"/>
     </row>
-    <row r="25" spans="1:10" ht="15" thickBot="1">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1">
       <c r="A25" s="4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B25" s="5">
         <v>45934</v>
@@ -1703,7 +1700,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F25" s="5">
         <v>45934</v>
@@ -1715,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J25" s="14"/>
     </row>

--- a/division_task.xlsx
+++ b/division_task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Zalo Received Files\Capstone-AirBnB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC649A3C-5A9B-4FE2-A546-8AA6FF3A12B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE3EC5C9-AAD4-44BE-8C8A-FF40DB4CC78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="36">
   <si>
     <t>Tasks Name</t>
   </si>
@@ -308,6 +308,9 @@
   </si>
   <si>
     <t>Quản lý thông tin người dùng</t>
+  </si>
+  <si>
+    <t>do API trả về một lượng dữ liệu quá lớn trong một lần gọi nên việc load toàn bộ dữ liệu để hiển thị danh sách sẽ khiến thời gian phản hồi từ server và trình duyệt kéo dài gây ra lỗi. Nhưng em vẫn làm đầy đủ các chức năng tìm kiếm, thêm, sửa, xóa</t>
   </si>
 </sst>
 </file>
@@ -990,7 +993,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1210,7 +1213,9 @@
       <c r="I7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="14"/>
+      <c r="J7" s="14" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="4" t="s">
